--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_2_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_2_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.37000000000006</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001034938445829803</v>
+        <v>1.189654002975438e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002878021934956356</v>
+        <v>3.130986555710535e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.093817782660256</v>
+        <v>5.694135775466709</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.271743326658049, 6.9158922386624635]</t>
+          <t>[3.2519430713634474, 8.13632847956997]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.004564998311059831</v>
+        <v>6.026913834888958e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004564998311059831</v>
+        <v>1.205382766977792e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.094368612061309</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7987897876410033, -0.38994743648161556]</t>
+          <t>[-1.9497371824080796, -0.9182633181663862]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.002402224291971677</v>
+        <v>7.861939166353693e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002402224291971677</v>
+        <v>1.572387833270739e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>12.67058957843048</v>
+        <v>13.43168692091326</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.146609189822819, 14.194569967038142]</t>
+          <t>[11.945619712974803, 14.917754128851712]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.896276276276286</v>
+        <v>5.116876876876891</v>
       </c>
       <c r="X2" t="n">
-        <v>1.388328328328329</v>
+        <v>3.276596596596606</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.404224224224242</v>
+        <v>6.957157157157176</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2900000000002</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.570645828397055e-06</v>
+        <v>1.732810470433943e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.892751980793702e-05</v>
+        <v>0.0001108108473332471</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.19168251839904</v>
+        <v>6.255599060626187</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.062240144646994, 9.321124892151087]</t>
+          <t>[2.8474573860948027, 9.663740735157571]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001201080362958074</v>
+        <v>0.0003524725356340852</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002402160725916147</v>
+        <v>0.0003524725356340852</v>
       </c>
       <c r="O3" t="n">
-        <v>1.000026490331886</v>
+        <v>-1.132105460753078</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 1.5157634224527339]</t>
+          <t>[-1.7107371406935403, -0.5534737808126167]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001627540343551725</v>
+        <v>0.0001423462420113708</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0003255080687103451</v>
+        <v>0.0001423462420113708</v>
       </c>
       <c r="S3" t="n">
-        <v>13.62524927729145</v>
+        <v>13.81334019812374</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.977278301041721, 15.273220253541176]</t>
+          <t>[11.973710817290174, 15.652969578957299]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.58318318318335</v>
+        <v>4.095495495495516</v>
       </c>
       <c r="X3" t="n">
-        <v>17.67149149149164</v>
+        <v>2.002242242242255</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.49487487487506</v>
+        <v>6.188748748748778</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_2_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_2_sawtooth_0.5_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.50000000000008</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.189654002975438e-06</v>
+        <v>9.245645902211663e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>3.130986555710535e-05</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.545378042217767e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.694135775466709</v>
+        <v>5.924249277230788</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.2519430713634474, 8.13632847956997]</t>
+          <t>[3.3085288153210666, 8.53996973914051]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.026913834888958e-06</v>
+        <v>1.088038493479715e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.205382766977792e-05</v>
+        <v>2.17607698695943e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.333368653775848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9497371824080796, -0.9182633181663862]</t>
+          <t>[-1.8616845354606175, -0.8050527720910781]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.861939166353693e-08</v>
+        <v>1.014894053019688e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.572387833270739e-07</v>
+        <v>1.014894053019688e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>13.43168692091326</v>
+        <v>14.59119738950869</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.945619712974803, 14.917754128851712]</t>
+          <t>[13.059081768776625, 16.12331301024076]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.116876876876891</v>
+        <v>4.774774774774791</v>
       </c>
       <c r="X2" t="n">
-        <v>3.276596596596606</v>
+        <v>2.882882882882893</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.957157157157176</v>
+        <v>6.666666666666688</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.73000000000011</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.732810470433943e-05</v>
+        <v>8.845810913316043e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001108108473332471</v>
+        <v>5.59223761306012e-05</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.255599060626187</v>
+        <v>5.813321377460388</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.8474573860948027, 9.663740735157571]</t>
+          <t>[2.9381616391611995, 8.688481115759577]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0003524725356340852</v>
+        <v>8.553617692430571e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0003524725356340852</v>
+        <v>8.553617692430571e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.132105460753078</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.7107371406935403, -0.5534737808126167]</t>
+          <t>[2.257921446724195, 3.3900269074772744]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001423462420113708</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001423462420113708</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.81334019812374</v>
+        <v>13.26447325410181</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.973710817290174, 15.652969578957299]</t>
+          <t>[11.613386079580078, 14.915560428623536]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.095495495495516</v>
+        <v>13.12512512512528</v>
       </c>
       <c r="X3" t="n">
-        <v>2.002242242242255</v>
+        <v>10.97737737737751</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.188748748748778</v>
+        <v>15.27287287287306</v>
       </c>
     </row>
   </sheetData>
